--- a/Week_02/assets/docs/Test-Result.xlsx
+++ b/Week_02/assets/docs/Test-Result.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Code\GitHub\JAVA-000\Week_02\assets\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E225C9-C620-42E1-89B8-80AC2BCB7C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813E3C1A-5C1B-41D0-BF5D-D477D3284AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GC" sheetId="2" r:id="rId1"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BEA4F1-A0A3-46D6-B9B2-81B9A1627248}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
